--- a/data/pca/factorExposure/factorExposure_2018-01-03.xlsx
+++ b/data/pca/factorExposure/factorExposure_2018-01-03.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="108">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="110">
   <si>
     <t>factor1</t>
   </si>
@@ -29,6 +29,12 @@
   </si>
   <si>
     <t>factor5</t>
+  </si>
+  <si>
+    <t>factor6</t>
+  </si>
+  <si>
+    <t>factor7</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -695,13 +701,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F104"/>
+  <dimension ref="A1:H104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -717,70 +723,94 @@
       <c r="F1" s="1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:6">
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
       <c r="A2" s="1" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B2">
-        <v>-0.009836532093370693</v>
+        <v>-0.007628138913699905</v>
       </c>
       <c r="C2">
-        <v>-0.003847800988609676</v>
+        <v>-0.03077549387423147</v>
       </c>
       <c r="D2">
-        <v>-0.02173741549832546</v>
+        <v>-0.02795579934484195</v>
       </c>
       <c r="E2">
-        <v>0.05998813492900615</v>
+        <v>0.02487521270413299</v>
       </c>
       <c r="F2">
-        <v>0.01200684462777849</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6">
+        <v>-0.03501897289400229</v>
+      </c>
+      <c r="G2">
+        <v>-0.01077819148632938</v>
+      </c>
+      <c r="H2">
+        <v>-0.006028743025999585</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
       <c r="A3" s="1" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B3">
-        <v>-0.06191000069963448</v>
+        <v>-0.05944207849205101</v>
       </c>
       <c r="C3">
-        <v>0.00163767040144065</v>
+        <v>-0.08980386130733269</v>
       </c>
       <c r="D3">
-        <v>0.02899771082382296</v>
+        <v>-0.01352591486653495</v>
       </c>
       <c r="E3">
-        <v>0.2443599577040377</v>
+        <v>0.07417407688130015</v>
       </c>
       <c r="F3">
-        <v>0.07406949806735778</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6">
+        <v>-0.08378908886508535</v>
+      </c>
+      <c r="G3">
+        <v>-0.06654957111288411</v>
+      </c>
+      <c r="H3">
+        <v>-0.0006359883193667062</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
       <c r="A4" s="1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B4">
-        <v>-0.03518358287207715</v>
+        <v>-0.0498649958758086</v>
       </c>
       <c r="C4">
-        <v>0.01558605289907326</v>
+        <v>-0.05942100952508783</v>
       </c>
       <c r="D4">
-        <v>-0.0306716740654523</v>
+        <v>-0.02113892857180889</v>
       </c>
       <c r="E4">
-        <v>0.03282200520314096</v>
+        <v>-0.002129869663795619</v>
       </c>
       <c r="F4">
-        <v>0.05450806407356365</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6">
+        <v>-0.02017285745359352</v>
+      </c>
+      <c r="G4">
+        <v>-0.03775114604602187</v>
+      </c>
+      <c r="H4">
+        <v>0.02980920658663069</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
       <c r="A5" s="1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -797,190 +827,250 @@
       <c r="F5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:6">
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
       <c r="A6" s="1" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B6">
-        <v>-0.06313025913030493</v>
+        <v>-0.02767238736453407</v>
       </c>
       <c r="C6">
-        <v>0.004629920163381961</v>
+        <v>-0.05682060733941215</v>
       </c>
       <c r="D6">
-        <v>-0.04346614963208322</v>
+        <v>-0.01582850121098232</v>
       </c>
       <c r="E6">
-        <v>0.0222153159517701</v>
+        <v>0.001320984324064596</v>
       </c>
       <c r="F6">
-        <v>0.04492955846992444</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6">
+        <v>-0.01900833339535099</v>
+      </c>
+      <c r="G6">
+        <v>-0.0189538482187765</v>
+      </c>
+      <c r="H6">
+        <v>0.004951401694602375</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
       <c r="A7" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B7">
-        <v>-0.02707873852110472</v>
+        <v>-0.01346763821204473</v>
       </c>
       <c r="C7">
-        <v>0.06940628067597356</v>
+        <v>-0.03796030798427183</v>
       </c>
       <c r="D7">
-        <v>-0.001067207264437148</v>
+        <v>-0.01256314082556793</v>
       </c>
       <c r="E7">
-        <v>0.01035988888383946</v>
+        <v>-0.01751019444115745</v>
       </c>
       <c r="F7">
-        <v>0.004088668989701125</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6">
+        <v>-0.01037037738086455</v>
+      </c>
+      <c r="G7">
+        <v>-0.07357370138997009</v>
+      </c>
+      <c r="H7">
+        <v>-0.00686281186390467</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
       <c r="A8" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B8">
-        <v>0.01772915211388355</v>
+        <v>0.008713891034738859</v>
       </c>
       <c r="C8">
-        <v>0.009159010523370214</v>
+        <v>-0.009140835165218599</v>
       </c>
       <c r="D8">
-        <v>-0.02330377520773132</v>
+        <v>-0.003412247218651473</v>
       </c>
       <c r="E8">
-        <v>0.03020128875681293</v>
+        <v>0.009933739704882821</v>
       </c>
       <c r="F8">
-        <v>0.03002601939773453</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6">
+        <v>-0.02686839757861901</v>
+      </c>
+      <c r="G8">
+        <v>-0.0261853054436758</v>
+      </c>
+      <c r="H8">
+        <v>0.02323880717849984</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
       <c r="A9" s="1" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B9">
-        <v>-0.02918157249822637</v>
+        <v>-0.02625837364128745</v>
       </c>
       <c r="C9">
-        <v>0.01133867156134283</v>
+        <v>-0.04033248387929685</v>
       </c>
       <c r="D9">
-        <v>-0.02562264395521851</v>
+        <v>-0.01453733547380578</v>
       </c>
       <c r="E9">
-        <v>0.05000517107178406</v>
+        <v>-0.001358930966286505</v>
       </c>
       <c r="F9">
-        <v>0.03122908460343031</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6">
+        <v>-0.02012467503325467</v>
+      </c>
+      <c r="G9">
+        <v>-0.02696585864667324</v>
+      </c>
+      <c r="H9">
+        <v>-0.003812562921821671</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
       <c r="A10" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B10">
-        <v>-0.05235302508998179</v>
+        <v>-0.09843213085648451</v>
       </c>
       <c r="C10">
-        <v>-0.01456818706404737</v>
+        <v>0.1779797111021124</v>
       </c>
       <c r="D10">
-        <v>0.1705565829731199</v>
+        <v>0.02149586341090683</v>
       </c>
       <c r="E10">
-        <v>0.03234663912764257</v>
+        <v>0.01725525952483016</v>
       </c>
       <c r="F10">
-        <v>-0.004079528827702271</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6">
+        <v>0.01092740463520168</v>
+      </c>
+      <c r="G10">
+        <v>-0.03186642345923513</v>
+      </c>
+      <c r="H10">
+        <v>-0.02400358459253554</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
       <c r="A11" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B11">
-        <v>-0.02910327383316057</v>
+        <v>-0.03270480533129469</v>
       </c>
       <c r="C11">
-        <v>-0.0029262993003783</v>
+        <v>-0.05614237042193314</v>
       </c>
       <c r="D11">
-        <v>-0.04363050751224337</v>
+        <v>-0.0005505773107070572</v>
       </c>
       <c r="E11">
-        <v>0.01068488737968666</v>
+        <v>-0.007866125124163313</v>
       </c>
       <c r="F11">
-        <v>0.01866486876685293</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6">
+        <v>-0.0271101824808427</v>
+      </c>
+      <c r="G11">
+        <v>-0.007657941648362496</v>
+      </c>
+      <c r="H11">
+        <v>0.002368140185539702</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
       <c r="A12" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B12">
-        <v>-0.03579946844802426</v>
+        <v>-0.03193250110189409</v>
       </c>
       <c r="C12">
-        <v>0.004978815280911123</v>
+        <v>-0.04986087359903354</v>
       </c>
       <c r="D12">
-        <v>-0.04142634343736613</v>
+        <v>-0.004979177952840952</v>
       </c>
       <c r="E12">
-        <v>-0.01319224710490192</v>
+        <v>-0.0134744994177076</v>
       </c>
       <c r="F12">
-        <v>0.0006709651851670535</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6">
+        <v>-0.007721385660979785</v>
+      </c>
+      <c r="G12">
+        <v>-0.0141552475384228</v>
+      </c>
+      <c r="H12">
+        <v>0.001893726145295028</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
       <c r="A13" s="1" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B13">
-        <v>-0.01703223886186613</v>
+        <v>-0.009905933962370642</v>
       </c>
       <c r="C13">
-        <v>-0.001127584621561352</v>
+        <v>-0.02894199946756252</v>
       </c>
       <c r="D13">
-        <v>-0.01641469279835016</v>
+        <v>-0.02367614380339094</v>
       </c>
       <c r="E13">
-        <v>0.04063646964163562</v>
+        <v>0.01599704760304089</v>
       </c>
       <c r="F13">
-        <v>0.0393111223062224</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6">
+        <v>-0.03507884909688442</v>
+      </c>
+      <c r="G13">
+        <v>-0.0231899733055398</v>
+      </c>
+      <c r="H13">
+        <v>0.01314655553387754</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8">
       <c r="A14" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B14">
-        <v>-0.0142687052561844</v>
+        <v>-0.005807135359507242</v>
       </c>
       <c r="C14">
-        <v>0.01435545696157268</v>
+        <v>-0.02474632832566166</v>
       </c>
       <c r="D14">
-        <v>-0.009216918057846548</v>
+        <v>-0.008123679115186416</v>
       </c>
       <c r="E14">
-        <v>0.01890597807480369</v>
+        <v>-0.00799973854752751</v>
       </c>
       <c r="F14">
-        <v>0.02730377863991996</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6">
+        <v>-0.00383839370361626</v>
+      </c>
+      <c r="G14">
+        <v>-0.03275609045305634</v>
+      </c>
+      <c r="H14">
+        <v>0.01659782356021514</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8">
       <c r="A15" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B15">
         <v>0</v>
@@ -997,30 +1087,42 @@
       <c r="F15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:6">
+      <c r="G15">
+        <v>0</v>
+      </c>
+      <c r="H15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8">
       <c r="A16" s="1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B16">
-        <v>-0.02696570293802132</v>
+        <v>-0.02837723947482257</v>
       </c>
       <c r="C16">
-        <v>0.003070130939881213</v>
+        <v>-0.04263717254876646</v>
       </c>
       <c r="D16">
-        <v>-0.04267751161184179</v>
+        <v>-0.000152671443672972</v>
       </c>
       <c r="E16">
-        <v>0.01174074363275963</v>
+        <v>-0.005291572572525906</v>
       </c>
       <c r="F16">
-        <v>0.02588403150599916</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6">
+        <v>-0.01538304031119503</v>
+      </c>
+      <c r="G16">
+        <v>-0.01287951775927091</v>
+      </c>
+      <c r="H16">
+        <v>0.00487076359484931</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8">
       <c r="A17" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -1037,10 +1139,16 @@
       <c r="F17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:6">
+      <c r="G17">
+        <v>0</v>
+      </c>
+      <c r="H17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8">
       <c r="A18" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -1057,70 +1165,94 @@
       <c r="F18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:6">
+      <c r="G18">
+        <v>0</v>
+      </c>
+      <c r="H18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8">
       <c r="A19" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B19">
-        <v>-0.03008271417920378</v>
+        <v>-0.02378656249876969</v>
       </c>
       <c r="C19">
-        <v>4.228836019046905e-05</v>
+        <v>-0.05104746385717895</v>
       </c>
       <c r="D19">
-        <v>-0.03585808778651726</v>
+        <v>-0.01429986072697473</v>
       </c>
       <c r="E19">
-        <v>0.05311140888857294</v>
+        <v>0.02971775885934277</v>
       </c>
       <c r="F19">
-        <v>0.0729085843027743</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6">
+        <v>-0.04465288695613403</v>
+      </c>
+      <c r="G19">
+        <v>-0.03367619363402685</v>
+      </c>
+      <c r="H19">
+        <v>0.02820452995148162</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8">
       <c r="A20" s="1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B20">
-        <v>-0.001925626374719523</v>
+        <v>-0.006809214544956945</v>
       </c>
       <c r="C20">
-        <v>0.003201709257590598</v>
+        <v>-0.0301364079198733</v>
       </c>
       <c r="D20">
-        <v>-0.00156700549505483</v>
+        <v>-0.01244364845307572</v>
       </c>
       <c r="E20">
-        <v>0.03012115700445693</v>
+        <v>0.01608654073266192</v>
       </c>
       <c r="F20">
-        <v>0.01334536670371527</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6">
+        <v>-0.01362106922242749</v>
+      </c>
+      <c r="G20">
+        <v>-0.02245689615172185</v>
+      </c>
+      <c r="H20">
+        <v>0.01132288143128174</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8">
       <c r="A21" s="1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B21">
-        <v>-0.03763771524155372</v>
+        <v>-0.009216970391340567</v>
       </c>
       <c r="C21">
-        <v>0.02175175665754824</v>
+        <v>-0.03230255366136423</v>
       </c>
       <c r="D21">
-        <v>-0.01413723067444653</v>
+        <v>-0.0153852085148816</v>
       </c>
       <c r="E21">
-        <v>0.02402028750584287</v>
+        <v>0.02070855462242019</v>
       </c>
       <c r="F21">
-        <v>0.03846026377310642</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6">
+        <v>-0.02456366861649397</v>
+      </c>
+      <c r="G21">
+        <v>-0.04583857410333632</v>
+      </c>
+      <c r="H21">
+        <v>0.01025377838368695</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8">
       <c r="A22" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B22">
         <v>0</v>
@@ -1137,10 +1269,16 @@
       <c r="F22">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:6">
+      <c r="G22">
+        <v>0</v>
+      </c>
+      <c r="H22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8">
       <c r="A23" s="1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B23">
         <v>0</v>
@@ -1157,230 +1295,302 @@
       <c r="F23">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:6">
+      <c r="G23">
+        <v>0</v>
+      </c>
+      <c r="H23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8">
       <c r="A24" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B24">
-        <v>-0.02538212613250682</v>
+        <v>-0.02369496983542262</v>
       </c>
       <c r="C24">
-        <v>0.001176448293523902</v>
+        <v>-0.0473488495498945</v>
       </c>
       <c r="D24">
-        <v>-0.03558096478540859</v>
+        <v>-0.005497207920676503</v>
       </c>
       <c r="E24">
-        <v>0.009299168117950974</v>
+        <v>-0.01017193798718006</v>
       </c>
       <c r="F24">
-        <v>0.01699933974008443</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6">
+        <v>-0.02244065344606519</v>
+      </c>
+      <c r="G24">
+        <v>-0.01025307530988776</v>
+      </c>
+      <c r="H24">
+        <v>-0.003068803357303635</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8">
       <c r="A25" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B25">
-        <v>-0.0391470380340898</v>
+        <v>-0.0399812626070133</v>
       </c>
       <c r="C25">
-        <v>-0.0009813971839608094</v>
+        <v>-0.05542892002644687</v>
       </c>
       <c r="D25">
-        <v>-0.03256460951950797</v>
+        <v>-0.009329290282487945</v>
       </c>
       <c r="E25">
-        <v>0.02416083676170231</v>
+        <v>-0.01731790879497491</v>
       </c>
       <c r="F25">
-        <v>0.03131700308337534</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6">
+        <v>-0.01954073141395823</v>
+      </c>
+      <c r="G25">
+        <v>-0.01722733544319844</v>
+      </c>
+      <c r="H25">
+        <v>0.008501828352774446</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8">
       <c r="A26" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B26">
-        <v>0.00402419387536955</v>
+        <v>-0.001287841075742436</v>
       </c>
       <c r="C26">
-        <v>0.01048264906063963</v>
+        <v>-0.004729988943066385</v>
       </c>
       <c r="D26">
-        <v>-0.005404872040332282</v>
+        <v>-0.02341377049813162</v>
       </c>
       <c r="E26">
-        <v>0.03081566447327965</v>
+        <v>0.0026457337156919</v>
       </c>
       <c r="F26">
-        <v>-0.001552080178336732</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6">
+        <v>-0.009454161971657674</v>
+      </c>
+      <c r="G26">
+        <v>-0.02108327076911324</v>
+      </c>
+      <c r="H26">
+        <v>0.009134280214324568</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8">
       <c r="A27" s="1" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B27">
-        <v>-0.0005734449545477263</v>
+        <v>-4.366824687075431e-05</v>
       </c>
       <c r="C27">
-        <v>-5.655138648602296e-05</v>
+        <v>-0.0002254682472721995</v>
       </c>
       <c r="D27">
-        <v>-0.001024008517244571</v>
+        <v>-7.156415854668828e-05</v>
       </c>
       <c r="E27">
-        <v>0.0006190326870291697</v>
+        <v>0.0003158803592821919</v>
       </c>
       <c r="F27">
-        <v>-0.002459312765591437</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6">
+        <v>0.0004231516539152007</v>
+      </c>
+      <c r="G27">
+        <v>0.0001546481993302409</v>
+      </c>
+      <c r="H27">
+        <v>-0.0008828353642258167</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8">
       <c r="A28" s="1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B28">
-        <v>-0.08691958519616438</v>
+        <v>-0.1286838190070367</v>
       </c>
       <c r="C28">
-        <v>-0.02202652548398247</v>
+        <v>0.2151105963861497</v>
       </c>
       <c r="D28">
-        <v>0.2450455253130123</v>
+        <v>0.01340859399471219</v>
       </c>
       <c r="E28">
-        <v>0.03249438853582875</v>
+        <v>0.01052746176242141</v>
       </c>
       <c r="F28">
-        <v>-0.01671871487620772</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6">
+        <v>0.01083160444989067</v>
+      </c>
+      <c r="G28">
+        <v>-0.04673170284830588</v>
+      </c>
+      <c r="H28">
+        <v>-0.01704669957720172</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8">
       <c r="A29" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B29">
-        <v>-0.01394928176292287</v>
+        <v>-0.01048797749517961</v>
       </c>
       <c r="C29">
-        <v>0.01055354046927766</v>
+        <v>-0.01979756067215974</v>
       </c>
       <c r="D29">
-        <v>-0.009307589921387326</v>
+        <v>-0.006841451034274871</v>
       </c>
       <c r="E29">
-        <v>0.01881752922225869</v>
+        <v>-0.006943111418000977</v>
       </c>
       <c r="F29">
-        <v>0.03168080041956936</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6">
+        <v>0.00208505092336065</v>
+      </c>
+      <c r="G29">
+        <v>-0.0265518160650269</v>
+      </c>
+      <c r="H29">
+        <v>0.02168363792580442</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8">
       <c r="A30" s="1" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B30">
-        <v>-0.04617171458646566</v>
+        <v>-0.03419858381108257</v>
       </c>
       <c r="C30">
-        <v>-0.05057367578152532</v>
+        <v>-0.07724844060843729</v>
       </c>
       <c r="D30">
-        <v>-0.06619374678504387</v>
+        <v>-0.02675519842797942</v>
       </c>
       <c r="E30">
-        <v>0.06185176749746121</v>
+        <v>0.01762215871612474</v>
       </c>
       <c r="F30">
-        <v>0.0481916893102247</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6">
+        <v>-0.04883904659461668</v>
+      </c>
+      <c r="G30">
+        <v>0.01120295746743992</v>
+      </c>
+      <c r="H30">
+        <v>0.02244591459639648</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8">
       <c r="A31" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B31">
-        <v>-0.04808945376490364</v>
+        <v>-0.041011226383671</v>
       </c>
       <c r="C31">
-        <v>0.01234810463248193</v>
+        <v>-0.02622549350665039</v>
       </c>
       <c r="D31">
-        <v>-0.01664618183418878</v>
+        <v>-0.001624265781528756</v>
       </c>
       <c r="E31">
-        <v>-0.002725231827322716</v>
+        <v>-0.01707244800687489</v>
       </c>
       <c r="F31">
-        <v>0.01887475902370333</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6">
+        <v>0.02635979235387619</v>
+      </c>
+      <c r="G31">
+        <v>-0.02419077634931635</v>
+      </c>
+      <c r="H31">
+        <v>0.006904577890212255</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8">
       <c r="A32" s="1" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B32">
-        <v>0.0009577881354364661</v>
+        <v>-0.001892354148669927</v>
       </c>
       <c r="C32">
-        <v>0.02874600805542872</v>
+        <v>-0.03217312197112843</v>
       </c>
       <c r="D32">
-        <v>-0.02551604765425079</v>
+        <v>0.005356917092073948</v>
       </c>
       <c r="E32">
-        <v>0.01539863538254891</v>
+        <v>0.01183281744514676</v>
       </c>
       <c r="F32">
-        <v>0.0705242047822862</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6">
+        <v>-0.07953422089310261</v>
+      </c>
+      <c r="G32">
+        <v>-0.05139154195780699</v>
+      </c>
+      <c r="H32">
+        <v>0.05328276457489226</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8">
       <c r="A33" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B33">
-        <v>-0.03146146706335407</v>
+        <v>-0.02644849355773544</v>
       </c>
       <c r="C33">
-        <v>-0.02045379114117196</v>
+        <v>-0.0502854814056674</v>
       </c>
       <c r="D33">
-        <v>-0.03325416371529939</v>
+        <v>-0.01310262992918924</v>
       </c>
       <c r="E33">
-        <v>0.04388905132933071</v>
+        <v>0.01310067410427357</v>
       </c>
       <c r="F33">
-        <v>0.003722193786830294</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6">
+        <v>-0.02598351218943293</v>
+      </c>
+      <c r="G33">
+        <v>-0.01204953453137585</v>
+      </c>
+      <c r="H33">
+        <v>-0.009821607840111829</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8">
       <c r="A34" s="1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B34">
-        <v>-0.02781373458581055</v>
+        <v>-0.04167798894420156</v>
       </c>
       <c r="C34">
-        <v>0.01165553731098705</v>
+        <v>-0.0568029313583738</v>
       </c>
       <c r="D34">
-        <v>-0.04406378795160481</v>
+        <v>0.006807197507496811</v>
       </c>
       <c r="E34">
-        <v>0.009777945820806717</v>
+        <v>-0.01791772454005028</v>
       </c>
       <c r="F34">
-        <v>0.0278927379678973</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6">
+        <v>-0.02440199565207602</v>
+      </c>
+      <c r="G34">
+        <v>-0.0217838140139875</v>
+      </c>
+      <c r="H34">
+        <v>0.003678834893939987</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8">
       <c r="A35" s="1" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B35">
         <v>0</v>
@@ -1397,30 +1607,42 @@
       <c r="F35">
         <v>0</v>
       </c>
-    </row>
-    <row r="36" spans="1:6">
+      <c r="G35">
+        <v>0</v>
+      </c>
+      <c r="H35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8">
       <c r="A36" s="1" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B36">
-        <v>-0.01125092755937804</v>
+        <v>-0.010069830991415</v>
       </c>
       <c r="C36">
-        <v>0.005228672487068003</v>
+        <v>-0.003045233039306838</v>
       </c>
       <c r="D36">
-        <v>-0.000932958598981361</v>
+        <v>-0.01031579257189505</v>
       </c>
       <c r="E36">
-        <v>0.01553016236506194</v>
+        <v>-0.002286983603761881</v>
       </c>
       <c r="F36">
-        <v>0.0165078797651131</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6">
+        <v>-0.001398531151240568</v>
+      </c>
+      <c r="G36">
+        <v>-0.01407914050539433</v>
+      </c>
+      <c r="H36">
+        <v>0.00181042268462074</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8">
       <c r="A37" s="1" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -1437,150 +1659,198 @@
       <c r="F37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:6">
+      <c r="G37">
+        <v>0</v>
+      </c>
+      <c r="H37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8">
       <c r="A38" s="1" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B38">
-        <v>-0.01920871023497347</v>
+        <v>-0.02681723750613926</v>
       </c>
       <c r="C38">
-        <v>-0.002816897372161968</v>
+        <v>-0.01992410028249552</v>
       </c>
       <c r="D38">
-        <v>-0.00592004692811347</v>
+        <v>0.00845908018280488</v>
       </c>
       <c r="E38">
-        <v>0.04198274271096752</v>
+        <v>-0.003219704196194909</v>
       </c>
       <c r="F38">
-        <v>0.02140672370416555</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6">
+        <v>-0.01099028380132288</v>
+      </c>
+      <c r="G38">
+        <v>-0.01944170644181199</v>
+      </c>
+      <c r="H38">
+        <v>0.005315748824741668</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8">
       <c r="A39" s="1" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B39">
-        <v>-0.02157870795690767</v>
+        <v>-0.0234824742474864</v>
       </c>
       <c r="C39">
-        <v>0.00846869574040039</v>
+        <v>-0.08392499890987699</v>
       </c>
       <c r="D39">
-        <v>-0.06893724313090775</v>
+        <v>-0.01128790525517017</v>
       </c>
       <c r="E39">
-        <v>0.04052016519540864</v>
+        <v>0.003941525240014029</v>
       </c>
       <c r="F39">
-        <v>0.0469844435560647</v>
-      </c>
-    </row>
-    <row r="40" spans="1:6">
+        <v>-0.04447908714039441</v>
+      </c>
+      <c r="G39">
+        <v>-0.01274294048740848</v>
+      </c>
+      <c r="H39">
+        <v>-0.007249037186412201</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8">
       <c r="A40" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B40">
-        <v>-0.02735059997757005</v>
+        <v>-0.01656750344460699</v>
       </c>
       <c r="C40">
-        <v>-0.001424202556110746</v>
+        <v>-0.02920841177973597</v>
       </c>
       <c r="D40">
-        <v>-0.04357799118680983</v>
+        <v>-0.01239292451533374</v>
       </c>
       <c r="E40">
-        <v>0.02836948609120286</v>
+        <v>0.007371236283363434</v>
       </c>
       <c r="F40">
-        <v>0.0164437424850158</v>
-      </c>
-    </row>
-    <row r="41" spans="1:6">
+        <v>-0.02807762168506065</v>
+      </c>
+      <c r="G40">
+        <v>-0.01157761391229482</v>
+      </c>
+      <c r="H40">
+        <v>-0.003979254454243101</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8">
       <c r="A41" s="1" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B41">
-        <v>-0.009904019059264645</v>
+        <v>-0.01180249347471627</v>
       </c>
       <c r="C41">
-        <v>-0.0006520776178354209</v>
+        <v>0.004728770848218307</v>
       </c>
       <c r="D41">
-        <v>0.01222000327601398</v>
+        <v>-0.002508522142354463</v>
       </c>
       <c r="E41">
-        <v>0.005543421513589335</v>
+        <v>-0.008534960068705117</v>
       </c>
       <c r="F41">
-        <v>0.004682909036972029</v>
-      </c>
-    </row>
-    <row r="42" spans="1:6">
+        <v>-0.0008405542286998329</v>
+      </c>
+      <c r="G41">
+        <v>-0.008758252921426977</v>
+      </c>
+      <c r="H41">
+        <v>0.003608915032322308</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8">
       <c r="A42" s="1" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B42">
-        <v>-0.202853933620039</v>
+        <v>-0.04664212566717094</v>
       </c>
       <c r="C42">
-        <v>-0.1227370228378657</v>
+        <v>-0.07521963629081278</v>
       </c>
       <c r="D42">
-        <v>-0.1110503323091049</v>
+        <v>-0.1095690375463994</v>
       </c>
       <c r="E42">
-        <v>0.1926304849288032</v>
+        <v>0.0914249790265276</v>
       </c>
       <c r="F42">
-        <v>-0.8383693011797334</v>
-      </c>
-    </row>
-    <row r="43" spans="1:6">
+        <v>0.1782339299036964</v>
+      </c>
+      <c r="G42">
+        <v>0.2893278021858005</v>
+      </c>
+      <c r="H42">
+        <v>-0.8982967556131386</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8">
       <c r="A43" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B43">
-        <v>-0.01423154227204722</v>
+        <v>-0.02623587780241349</v>
       </c>
       <c r="C43">
-        <v>-0.003712727172181424</v>
+        <v>-0.004459547627087636</v>
       </c>
       <c r="D43">
-        <v>0.01046925026990705</v>
+        <v>-0.002252505125204469</v>
       </c>
       <c r="E43">
-        <v>0.01163143351596349</v>
+        <v>-0.006458131987360842</v>
       </c>
       <c r="F43">
-        <v>0.005647487704598923</v>
-      </c>
-    </row>
-    <row r="44" spans="1:6">
+        <v>-0.005367329376589906</v>
+      </c>
+      <c r="G43">
+        <v>-0.01035580926029947</v>
+      </c>
+      <c r="H43">
+        <v>0.004140326287280508</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8">
       <c r="A44" s="1" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B44">
-        <v>-0.007286000473774155</v>
+        <v>-0.01214420533117895</v>
       </c>
       <c r="C44">
-        <v>0.009932148728523662</v>
+        <v>-0.04834741998487575</v>
       </c>
       <c r="D44">
-        <v>-0.01716672381918789</v>
+        <v>-0.006334685340046183</v>
       </c>
       <c r="E44">
-        <v>0.07047577010137433</v>
+        <v>0.01342774367449706</v>
       </c>
       <c r="F44">
-        <v>0.03619167355359856</v>
-      </c>
-    </row>
-    <row r="45" spans="1:6">
+        <v>-0.02838013800150795</v>
+      </c>
+      <c r="G44">
+        <v>-0.02916424387249769</v>
+      </c>
+      <c r="H44">
+        <v>-0.01082355899634828</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8">
       <c r="A45" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -1597,70 +1867,94 @@
       <c r="F45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:6">
+      <c r="G45">
+        <v>0</v>
+      </c>
+      <c r="H45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8">
       <c r="A46" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B46">
-        <v>-0.01235439568593743</v>
+        <v>6.200691614829227e-05</v>
       </c>
       <c r="C46">
-        <v>0.002668677263095186</v>
+        <v>-0.01447786568229192</v>
       </c>
       <c r="D46">
-        <v>-0.03518833826992312</v>
+        <v>-0.01119532932617689</v>
       </c>
       <c r="E46">
-        <v>0.03827973076762232</v>
+        <v>-0.007501611687806181</v>
       </c>
       <c r="F46">
-        <v>0.04142074258898253</v>
-      </c>
-    </row>
-    <row r="47" spans="1:6">
+        <v>0.006059486461311848</v>
+      </c>
+      <c r="G46">
+        <v>-0.01775507846943011</v>
+      </c>
+      <c r="H46">
+        <v>0.02044153420914233</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8">
       <c r="A47" s="1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B47">
-        <v>-0.07376672664992828</v>
+        <v>-0.06571272803724053</v>
       </c>
       <c r="C47">
-        <v>-0.003166309566402368</v>
+        <v>-0.05983234697114079</v>
       </c>
       <c r="D47">
-        <v>-0.02194611227049269</v>
+        <v>0.005771278900494374</v>
       </c>
       <c r="E47">
-        <v>-0.03553344280542862</v>
+        <v>-0.01911427457814281</v>
       </c>
       <c r="F47">
-        <v>-0.0136783127089884</v>
-      </c>
-    </row>
-    <row r="48" spans="1:6">
+        <v>0.05751974593891212</v>
+      </c>
+      <c r="G47">
+        <v>-0.01483711622013901</v>
+      </c>
+      <c r="H47">
+        <v>0.00979073471279561</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8">
       <c r="A48" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B48">
-        <v>-0.02216788398538243</v>
+        <v>-0.01413070402414022</v>
       </c>
       <c r="C48">
-        <v>0.0044748056302323</v>
+        <v>-0.01022325169301828</v>
       </c>
       <c r="D48">
-        <v>-0.008294157443890048</v>
+        <v>-0.0004396070207191664</v>
       </c>
       <c r="E48">
-        <v>0.01562180771301847</v>
+        <v>-0.008048964270350716</v>
       </c>
       <c r="F48">
-        <v>0.01470655643646263</v>
-      </c>
-    </row>
-    <row r="49" spans="1:6">
+        <v>0.01296370783388852</v>
+      </c>
+      <c r="G48">
+        <v>-0.01679772003126122</v>
+      </c>
+      <c r="H48">
+        <v>0.005019532001848793</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8">
       <c r="A49" s="1" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B49">
         <v>0</v>
@@ -1677,50 +1971,68 @@
       <c r="F49">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="1:6">
+      <c r="G49">
+        <v>0</v>
+      </c>
+      <c r="H49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8">
       <c r="A50" s="1" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B50">
-        <v>-0.07921027562881007</v>
+        <v>-0.07129003051108995</v>
       </c>
       <c r="C50">
-        <v>0.02655907861032946</v>
+        <v>-0.06359966361252052</v>
       </c>
       <c r="D50">
-        <v>-0.04192876688862277</v>
+        <v>0.004782123638386622</v>
       </c>
       <c r="E50">
-        <v>-0.006733676558457668</v>
+        <v>-0.01945275202693332</v>
       </c>
       <c r="F50">
-        <v>-0.02007962911693955</v>
-      </c>
-    </row>
-    <row r="51" spans="1:6">
+        <v>0.05585209348386014</v>
+      </c>
+      <c r="G50">
+        <v>-0.03964099169372197</v>
+      </c>
+      <c r="H50">
+        <v>0.007217459110491931</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8">
       <c r="A51" s="1" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B51">
-        <v>-0.009893184463091407</v>
+        <v>-0.01312785190339693</v>
       </c>
       <c r="C51">
-        <v>0.00734824513203842</v>
+        <v>-0.02557466740739032</v>
       </c>
       <c r="D51">
-        <v>0.01845977602351719</v>
+        <v>-0.008063864572012676</v>
       </c>
       <c r="E51">
-        <v>0.0611665776561475</v>
+        <v>0.00136585475663876</v>
       </c>
       <c r="F51">
-        <v>0.04864094174152932</v>
-      </c>
-    </row>
-    <row r="52" spans="1:6">
+        <v>-0.03830409567170431</v>
+      </c>
+      <c r="G51">
+        <v>-0.03562365707787905</v>
+      </c>
+      <c r="H51">
+        <v>0.001136119142921033</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8">
       <c r="A52" s="1" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -1737,190 +2049,250 @@
       <c r="F52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:6">
+      <c r="G52">
+        <v>0</v>
+      </c>
+      <c r="H52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8">
       <c r="A53" s="1" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="B53">
-        <v>-0.1027215487456697</v>
+        <v>-0.0923039448601695</v>
       </c>
       <c r="C53">
-        <v>0.01026710377231454</v>
+        <v>-0.08157319278064744</v>
       </c>
       <c r="D53">
-        <v>-0.05166502425421592</v>
+        <v>0.006767526028022884</v>
       </c>
       <c r="E53">
-        <v>-0.0585077116091808</v>
+        <v>-0.04263376644779411</v>
       </c>
       <c r="F53">
-        <v>-0.007102586679408803</v>
-      </c>
-    </row>
-    <row r="54" spans="1:6">
+        <v>0.06782192651680415</v>
+      </c>
+      <c r="G53">
+        <v>-0.01635151838264102</v>
+      </c>
+      <c r="H53">
+        <v>-0.002961184545660853</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8">
       <c r="A54" s="1" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B54">
-        <v>-0.02611808243430207</v>
+        <v>-0.02755801913110176</v>
       </c>
       <c r="C54">
-        <v>0.007783837363929481</v>
+        <v>-0.003818189868430532</v>
       </c>
       <c r="D54">
-        <v>-0.001767100900615674</v>
+        <v>0.005189968823314619</v>
       </c>
       <c r="E54">
-        <v>0.001326650380357975</v>
+        <v>-0.002355794688195897</v>
       </c>
       <c r="F54">
-        <v>0.03403443198439508</v>
-      </c>
-    </row>
-    <row r="55" spans="1:6">
+        <v>0.0009262825830934833</v>
+      </c>
+      <c r="G54">
+        <v>-0.02492533831367377</v>
+      </c>
+      <c r="H54">
+        <v>0.01716277320604317</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8">
       <c r="A55" s="1" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="B55">
-        <v>-0.07652229100342184</v>
+        <v>-0.06694705937152336</v>
       </c>
       <c r="C55">
-        <v>0.003778096602235431</v>
+        <v>-0.07074954904986472</v>
       </c>
       <c r="D55">
-        <v>-0.06443002055475408</v>
+        <v>0.00563257305535049</v>
       </c>
       <c r="E55">
-        <v>-0.0376157726768204</v>
+        <v>-0.03194096535072013</v>
       </c>
       <c r="F55">
-        <v>-0.0179277008346776</v>
-      </c>
-    </row>
-    <row r="56" spans="1:6">
+        <v>0.06174440111963223</v>
+      </c>
+      <c r="G55">
+        <v>-0.00592564687732447</v>
+      </c>
+      <c r="H55">
+        <v>0.006068483646444215</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8">
       <c r="A56" s="1" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B56">
-        <v>-0.1428903971560844</v>
+        <v>-0.1380004592813768</v>
       </c>
       <c r="C56">
-        <v>0.003294069990419886</v>
+        <v>-0.1075112895409244</v>
       </c>
       <c r="D56">
-        <v>-0.07073605919250016</v>
+        <v>0.01549751507246014</v>
       </c>
       <c r="E56">
-        <v>-0.09109247952403829</v>
+        <v>-0.04405370598810984</v>
       </c>
       <c r="F56">
-        <v>-0.01902919685457234</v>
-      </c>
-    </row>
-    <row r="57" spans="1:6">
+        <v>0.1060249710312627</v>
+      </c>
+      <c r="G56">
+        <v>0.004185698039666091</v>
+      </c>
+      <c r="H56">
+        <v>0.00623753126744742</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8">
       <c r="A57" s="1" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="B57">
-        <v>-0.0385407338482044</v>
+        <v>-0.01569111198513638</v>
       </c>
       <c r="C57">
-        <v>-0.007706308558064389</v>
+        <v>-0.01357695997221919</v>
       </c>
       <c r="D57">
-        <v>-0.01429190884628736</v>
+        <v>-0.02341399526698849</v>
       </c>
       <c r="E57">
-        <v>0.0389725197198022</v>
+        <v>0.031267869483624</v>
       </c>
       <c r="F57">
-        <v>0.005629757861544482</v>
-      </c>
-    </row>
-    <row r="58" spans="1:6">
+        <v>-0.01815244466547798</v>
+      </c>
+      <c r="G57">
+        <v>-0.02286274808351819</v>
+      </c>
+      <c r="H57">
+        <v>-0.001096102121769542</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8">
       <c r="A58" s="1" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="B58">
-        <v>-0.1843137820201171</v>
+        <v>-0.06648169048910865</v>
       </c>
       <c r="C58">
-        <v>-0.137278095321339</v>
+        <v>-0.09140485793446408</v>
       </c>
       <c r="D58">
-        <v>-0.1601096662487105</v>
+        <v>-0.02159545234822377</v>
       </c>
       <c r="E58">
-        <v>0.6104326547338883</v>
+        <v>0.9485023019308286</v>
       </c>
       <c r="F58">
-        <v>-0.0673419465627571</v>
-      </c>
-    </row>
-    <row r="59" spans="1:6">
+        <v>0.1983361556855844</v>
+      </c>
+      <c r="G58">
+        <v>-0.07554489337641188</v>
+      </c>
+      <c r="H58">
+        <v>0.1148126392770014</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8">
       <c r="A59" s="1" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="B59">
-        <v>-0.08837598343767838</v>
+        <v>-0.1628362089360572</v>
       </c>
       <c r="C59">
-        <v>-0.0423641700652942</v>
+        <v>0.2044497977883146</v>
       </c>
       <c r="D59">
-        <v>0.1985291625202022</v>
+        <v>0.02051052489102708</v>
       </c>
       <c r="E59">
-        <v>0.05969539523515564</v>
+        <v>0.01627150341502161</v>
       </c>
       <c r="F59">
-        <v>0.0410691205332603</v>
-      </c>
-    </row>
-    <row r="60" spans="1:6">
+        <v>-0.01468191255494529</v>
+      </c>
+      <c r="G59">
+        <v>-0.01987831974333343</v>
+      </c>
+      <c r="H59">
+        <v>0.001768175567540531</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8">
       <c r="A60" s="1" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B60">
-        <v>-0.2059167585149619</v>
+        <v>-0.2842464488866452</v>
       </c>
       <c r="C60">
-        <v>-0.0523264715542392</v>
+        <v>-0.09155684377618867</v>
       </c>
       <c r="D60">
-        <v>0.0236292490968786</v>
+        <v>-0.002631779097064842</v>
       </c>
       <c r="E60">
-        <v>0.154464378159026</v>
+        <v>0.01089528026396031</v>
       </c>
       <c r="F60">
-        <v>0.2320958156004508</v>
-      </c>
-    </row>
-    <row r="61" spans="1:6">
+        <v>-0.3906468058391483</v>
+      </c>
+      <c r="G60">
+        <v>0.04880621236165044</v>
+      </c>
+      <c r="H60">
+        <v>0.02107397651420554</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8">
       <c r="A61" s="1" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="B61">
-        <v>-0.032526808220427</v>
+        <v>-0.02678478902509641</v>
       </c>
       <c r="C61">
-        <v>0.002803533870616147</v>
+        <v>-0.06564175066930636</v>
       </c>
       <c r="D61">
-        <v>-0.05448864105022897</v>
+        <v>-0.004414995631290134</v>
       </c>
       <c r="E61">
-        <v>0.02374066064254344</v>
+        <v>-0.001339122016355188</v>
       </c>
       <c r="F61">
-        <v>0.04584155926623997</v>
-      </c>
-    </row>
-    <row r="62" spans="1:6">
+        <v>-0.03040651539746724</v>
+      </c>
+      <c r="G61">
+        <v>-0.0157061988607357</v>
+      </c>
+      <c r="H61">
+        <v>0.006147049327373371</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8">
       <c r="A62" s="1" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B62">
         <v>0</v>
@@ -1937,150 +2309,198 @@
       <c r="F62">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="1:6">
+      <c r="G62">
+        <v>0</v>
+      </c>
+      <c r="H62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8">
       <c r="A63" s="1" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="B63">
-        <v>-0.01714237998296939</v>
+        <v>-0.01328190977675918</v>
       </c>
       <c r="C63">
-        <v>0.006723663213864744</v>
+        <v>-0.03224697895105481</v>
       </c>
       <c r="D63">
-        <v>-0.02418959847842841</v>
+        <v>-0.007327134450822727</v>
       </c>
       <c r="E63">
-        <v>0.0006456780200974562</v>
+        <v>-0.01611465656073172</v>
       </c>
       <c r="F63">
-        <v>0.0009716123809240677</v>
-      </c>
-    </row>
-    <row r="64" spans="1:6">
+        <v>0.003676707910586702</v>
+      </c>
+      <c r="G63">
+        <v>-0.02125881276760826</v>
+      </c>
+      <c r="H63">
+        <v>0.0116563836753563</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8">
       <c r="A64" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B64">
-        <v>-0.04943438779977476</v>
+        <v>-0.04574196815559723</v>
       </c>
       <c r="C64">
-        <v>0.001237356752251167</v>
+        <v>-0.03815997388546867</v>
       </c>
       <c r="D64">
-        <v>-0.03283652460951387</v>
+        <v>-0.003299395782567136</v>
       </c>
       <c r="E64">
-        <v>0.01091784638880791</v>
+        <v>-0.01802844948790736</v>
       </c>
       <c r="F64">
-        <v>0.02105743462578754</v>
-      </c>
-    </row>
-    <row r="65" spans="1:6">
+        <v>-0.0156472155659229</v>
+      </c>
+      <c r="G64">
+        <v>-0.00952427924199291</v>
+      </c>
+      <c r="H64">
+        <v>-0.023406399518831</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8">
       <c r="A65" s="1" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="B65">
-        <v>-0.07031106234556692</v>
+        <v>-0.07285738638563395</v>
       </c>
       <c r="C65">
-        <v>0.004695100434972978</v>
+        <v>-0.07650488857141953</v>
       </c>
       <c r="D65">
-        <v>-0.04592384071153547</v>
+        <v>-0.01464108422166503</v>
       </c>
       <c r="E65">
-        <v>0.01700301546504652</v>
+        <v>-0.003828421597382347</v>
       </c>
       <c r="F65">
-        <v>0.04748084725785739</v>
-      </c>
-    </row>
-    <row r="66" spans="1:6">
+        <v>-0.04500721468655104</v>
+      </c>
+      <c r="G65">
+        <v>-0.009927088284600745</v>
+      </c>
+      <c r="H65">
+        <v>0.0132119016530495</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8">
       <c r="A66" s="1" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="B66">
-        <v>-0.04571260808195966</v>
+        <v>-0.04341425253706532</v>
       </c>
       <c r="C66">
-        <v>-0.01046744392118827</v>
+        <v>-0.1233799779679394</v>
       </c>
       <c r="D66">
-        <v>-0.0812781317476773</v>
+        <v>-0.01049663119310452</v>
       </c>
       <c r="E66">
-        <v>0.01948641281778328</v>
+        <v>0.004489274861536242</v>
       </c>
       <c r="F66">
-        <v>0.07605785949303287</v>
-      </c>
-    </row>
-    <row r="67" spans="1:6">
+        <v>-0.05321605061929704</v>
+      </c>
+      <c r="G66">
+        <v>-0.004787160220557406</v>
+      </c>
+      <c r="H66">
+        <v>0.01872052677090891</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8">
       <c r="A67" s="1" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="B67">
-        <v>-0.03709090301223402</v>
+        <v>-0.0534605723052399</v>
       </c>
       <c r="C67">
-        <v>-0.006799046317369858</v>
+        <v>-0.02451799821599406</v>
       </c>
       <c r="D67">
-        <v>-0.001352081869670844</v>
+        <v>0.007699871790169941</v>
       </c>
       <c r="E67">
-        <v>0.02067958181514437</v>
+        <v>-0.009025496954333438</v>
       </c>
       <c r="F67">
-        <v>0.0262069487527519</v>
-      </c>
-    </row>
-    <row r="68" spans="1:6">
+        <v>-0.008347428254958838</v>
+      </c>
+      <c r="G67">
+        <v>-0.01919216395680545</v>
+      </c>
+      <c r="H67">
+        <v>0.01035236046716462</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8">
       <c r="A68" s="1" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="B68">
-        <v>-0.07886988317992533</v>
+        <v>-0.1435483343538241</v>
       </c>
       <c r="C68">
-        <v>-0.03897895829538982</v>
+        <v>0.2516105355731865</v>
       </c>
       <c r="D68">
-        <v>0.2226716468130804</v>
+        <v>0.002085179015002246</v>
       </c>
       <c r="E68">
-        <v>0.0224244468412757</v>
+        <v>0.01723508952051271</v>
       </c>
       <c r="F68">
-        <v>-0.002150308356430832</v>
-      </c>
-    </row>
-    <row r="69" spans="1:6">
+        <v>0.01994300098800789</v>
+      </c>
+      <c r="G68">
+        <v>-0.01852630345182977</v>
+      </c>
+      <c r="H68">
+        <v>-0.01236376270336651</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8">
       <c r="A69" s="1" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="B69">
-        <v>-0.0552849780704215</v>
+        <v>-0.0700432742863728</v>
       </c>
       <c r="C69">
-        <v>-0.001468985941814791</v>
+        <v>-0.05797073099242477</v>
       </c>
       <c r="D69">
-        <v>-0.03190830592004004</v>
+        <v>0.01080459541742511</v>
       </c>
       <c r="E69">
-        <v>-0.02799779197729408</v>
+        <v>-0.03495321105474791</v>
       </c>
       <c r="F69">
-        <v>0.01346849461424142</v>
-      </c>
-    </row>
-    <row r="70" spans="1:6">
+        <v>0.03211571836896364</v>
+      </c>
+      <c r="G69">
+        <v>-0.01102461647658321</v>
+      </c>
+      <c r="H69">
+        <v>0.02007543645347529</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8">
       <c r="A70" s="1" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="B70">
         <v>0</v>
@@ -2097,170 +2517,224 @@
       <c r="F70">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="1:6">
+      <c r="G70">
+        <v>0</v>
+      </c>
+      <c r="H70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8">
       <c r="A71" s="1" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B71">
-        <v>-0.07159314198506714</v>
+        <v>-0.1394513995816966</v>
       </c>
       <c r="C71">
-        <v>-0.02531909403360269</v>
+        <v>0.2109129655488129</v>
       </c>
       <c r="D71">
-        <v>0.2235775827157457</v>
+        <v>0.01040109292192783</v>
       </c>
       <c r="E71">
-        <v>0.03997448698226419</v>
+        <v>0.02378193809174296</v>
       </c>
       <c r="F71">
-        <v>-0.05308885486254102</v>
-      </c>
-    </row>
-    <row r="72" spans="1:6">
+        <v>0.02516083099190151</v>
+      </c>
+      <c r="G71">
+        <v>-0.03109458646519444</v>
+      </c>
+      <c r="H71">
+        <v>-0.02753536245644596</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8">
       <c r="A72" s="1" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="B72">
-        <v>-0.1359500117272071</v>
+        <v>-0.07853653722353381</v>
       </c>
       <c r="C72">
-        <v>-0.01339725508728686</v>
+        <v>-0.08725716480060933</v>
       </c>
       <c r="D72">
-        <v>-0.1254286512064133</v>
+        <v>0.01046975165686447</v>
       </c>
       <c r="E72">
-        <v>0.1022482072627325</v>
+        <v>-0.01887420769983401</v>
       </c>
       <c r="F72">
-        <v>0.2018791298387764</v>
-      </c>
-    </row>
-    <row r="73" spans="1:6">
+        <v>-0.04140847507115093</v>
+      </c>
+      <c r="G72">
+        <v>0.003683215800642512</v>
+      </c>
+      <c r="H72">
+        <v>0.01672109160798948</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8">
       <c r="A73" s="1" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="B73">
-        <v>-0.2540290484788613</v>
+        <v>-0.3880022605756715</v>
       </c>
       <c r="C73">
-        <v>-0.1140314048858659</v>
+        <v>-0.1332778049743061</v>
       </c>
       <c r="D73">
-        <v>-0.008722583663074395</v>
+        <v>-0.007717305208994724</v>
       </c>
       <c r="E73">
-        <v>0.2296555734047468</v>
+        <v>0.06531809455204195</v>
       </c>
       <c r="F73">
-        <v>0.1708873895672474</v>
-      </c>
-    </row>
-    <row r="74" spans="1:6">
+        <v>-0.5299412064412423</v>
+      </c>
+      <c r="G73">
+        <v>0.09613062380859996</v>
+      </c>
+      <c r="H73">
+        <v>-0.07738457023381111</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8">
       <c r="A74" s="1" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B74">
-        <v>-0.1330438965711457</v>
+        <v>-0.1077776125430466</v>
       </c>
       <c r="C74">
-        <v>-0.005025450860089493</v>
+        <v>-0.121155581805261</v>
       </c>
       <c r="D74">
-        <v>-0.07207063826324982</v>
+        <v>0.01112577262362495</v>
       </c>
       <c r="E74">
-        <v>-0.0842504700385245</v>
+        <v>-0.04193549242128789</v>
       </c>
       <c r="F74">
-        <v>0.002494806116392585</v>
-      </c>
-    </row>
-    <row r="75" spans="1:6">
+        <v>0.07349360458741006</v>
+      </c>
+      <c r="G74">
+        <v>-0.009248938866123784</v>
+      </c>
+      <c r="H74">
+        <v>0.003933343240119559</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8">
       <c r="A75" s="1" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B75">
-        <v>-0.2688468326931032</v>
+        <v>-0.2464560296866629</v>
       </c>
       <c r="C75">
-        <v>-0.02045010143189636</v>
+        <v>-0.1640540463528294</v>
       </c>
       <c r="D75">
-        <v>-0.1022408026544543</v>
+        <v>0.03230244644946261</v>
       </c>
       <c r="E75">
-        <v>-0.1573199675351649</v>
+        <v>-0.06161090280628851</v>
       </c>
       <c r="F75">
-        <v>0.03946995715795883</v>
-      </c>
-    </row>
-    <row r="76" spans="1:6">
+        <v>0.2134247218045408</v>
+      </c>
+      <c r="G75">
+        <v>0.0248334321370032</v>
+      </c>
+      <c r="H75">
+        <v>0.0263346073792367</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8">
       <c r="A76" s="1" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B76">
-        <v>-0.2633240892986306</v>
+        <v>-0.146844282126883</v>
       </c>
       <c r="C76">
-        <v>0.001397432638104195</v>
+        <v>-0.1382230784601981</v>
       </c>
       <c r="D76">
-        <v>-0.1163105123335682</v>
+        <v>0.02424826137604566</v>
       </c>
       <c r="E76">
-        <v>-0.2219673279655902</v>
+        <v>-0.06870019014856689</v>
       </c>
       <c r="F76">
-        <v>-0.01544244641613715</v>
-      </c>
-    </row>
-    <row r="77" spans="1:6">
+        <v>0.151203688125484</v>
+      </c>
+      <c r="G76">
+        <v>0.0007110442133013768</v>
+      </c>
+      <c r="H76">
+        <v>0.006194677299747898</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8">
       <c r="A77" s="1" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B77">
-        <v>-0.07210393864255693</v>
+        <v>-0.05200970020594339</v>
       </c>
       <c r="C77">
-        <v>-0.00596331813640381</v>
+        <v>-0.06216848189668687</v>
       </c>
       <c r="D77">
-        <v>-0.06210633297699974</v>
+        <v>-0.01204927577927219</v>
       </c>
       <c r="E77">
-        <v>0.07626478444646773</v>
+        <v>0.03322341021900286</v>
       </c>
       <c r="F77">
-        <v>-0.108985720262188</v>
-      </c>
-    </row>
-    <row r="78" spans="1:6">
+        <v>0.002505266658605048</v>
+      </c>
+      <c r="G77">
+        <v>-0.02827884842463602</v>
+      </c>
+      <c r="H77">
+        <v>-0.01930161856993043</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8">
       <c r="A78" s="1" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B78">
-        <v>-0.03313459919890433</v>
+        <v>-0.03998930348183662</v>
       </c>
       <c r="C78">
-        <v>0.007189721820463185</v>
+        <v>-0.05464585156934836</v>
       </c>
       <c r="D78">
-        <v>-0.04959196741782194</v>
+        <v>-0.004417954437986228</v>
       </c>
       <c r="E78">
-        <v>0.06061911476998025</v>
+        <v>0.01493869481608417</v>
       </c>
       <c r="F78">
-        <v>0.06178132614063119</v>
-      </c>
-    </row>
-    <row r="79" spans="1:6">
+        <v>-0.04706311921131144</v>
+      </c>
+      <c r="G78">
+        <v>-0.02502560159101096</v>
+      </c>
+      <c r="H78">
+        <v>0.01201896217613901</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8">
       <c r="A79" s="1" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B79">
         <v>0</v>
@@ -2277,90 +2751,120 @@
       <c r="F79">
         <v>0</v>
       </c>
-    </row>
-    <row r="80" spans="1:6">
+      <c r="G79">
+        <v>0</v>
+      </c>
+      <c r="H79">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8">
       <c r="A80" s="1" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="B80">
-        <v>-0.2207801374998914</v>
+        <v>-0.06339451584351327</v>
       </c>
       <c r="C80">
-        <v>0.9424322925141764</v>
+        <v>-0.08426540829712115</v>
       </c>
       <c r="D80">
-        <v>0.1108013529016095</v>
+        <v>-0.01226664444207278</v>
       </c>
       <c r="E80">
-        <v>0.1315629123491339</v>
+        <v>-0.0699049402244824</v>
       </c>
       <c r="F80">
-        <v>-0.06677861913797191</v>
-      </c>
-    </row>
-    <row r="81" spans="1:6">
+        <v>0.02423443105006402</v>
+      </c>
+      <c r="G80">
+        <v>-0.910832993713638</v>
+      </c>
+      <c r="H80">
+        <v>-0.2832549632104923</v>
+      </c>
+    </row>
+    <row r="81" spans="1:8">
       <c r="A81" s="1" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B81">
-        <v>-0.2101737785500859</v>
+        <v>-0.147025991267827</v>
       </c>
       <c r="C81">
-        <v>-0.005180071221886591</v>
+        <v>-0.104369469244726</v>
       </c>
       <c r="D81">
-        <v>-0.07776352621614531</v>
+        <v>0.01842726833392022</v>
       </c>
       <c r="E81">
-        <v>-0.1218541071634454</v>
+        <v>-0.04190520194256877</v>
       </c>
       <c r="F81">
-        <v>0.02641522927907135</v>
-      </c>
-    </row>
-    <row r="82" spans="1:6">
+        <v>0.1398900662766968</v>
+      </c>
+      <c r="G81">
+        <v>-0.007877328736570663</v>
+      </c>
+      <c r="H81">
+        <v>0.01254974806510426</v>
+      </c>
+    </row>
+    <row r="82" spans="1:8">
       <c r="A82" s="1" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B82">
-        <v>0</v>
+        <v>-0.03381791802859024</v>
       </c>
       <c r="C82">
-        <v>0</v>
+        <v>-0.02267284313689868</v>
       </c>
       <c r="D82">
-        <v>0</v>
+        <v>0.002883904608272337</v>
       </c>
       <c r="E82">
-        <v>0</v>
+        <v>-0.02296867748355239</v>
       </c>
       <c r="F82">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="83" spans="1:6">
+        <v>-0.0003080919805147348</v>
+      </c>
+      <c r="G82">
+        <v>-0.0006132243654046052</v>
+      </c>
+      <c r="H82">
+        <v>0.01385170010233051</v>
+      </c>
+    </row>
+    <row r="83" spans="1:8">
       <c r="A83" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B83">
-        <v>-0.03429231275002372</v>
+        <v>-0.02684047674396559</v>
       </c>
       <c r="C83">
-        <v>-0.006816666129407163</v>
+        <v>-0.01962263781250952</v>
       </c>
       <c r="D83">
-        <v>-0.004188257478763831</v>
+        <v>-0.004390085160040568</v>
       </c>
       <c r="E83">
-        <v>0.03699367753506683</v>
+        <v>0.02010544030284594</v>
       </c>
       <c r="F83">
-        <v>0.0205069588230525</v>
-      </c>
-    </row>
-    <row r="84" spans="1:6">
+        <v>-0.02656288142817347</v>
+      </c>
+      <c r="G83">
+        <v>-0.02746864705852853</v>
+      </c>
+      <c r="H83">
+        <v>0.01166203020738719</v>
+      </c>
+    </row>
+    <row r="84" spans="1:8">
       <c r="A84" s="1" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B84">
         <v>0</v>
@@ -2377,230 +2881,302 @@
       <c r="F84">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="1:6">
+      <c r="G84">
+        <v>0</v>
+      </c>
+      <c r="H84">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:8">
       <c r="A85" s="1" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B85">
-        <v>-0.253474316014081</v>
+        <v>-0.2412522286127379</v>
       </c>
       <c r="C85">
-        <v>-0.02823689714861895</v>
+        <v>-0.1771585098868715</v>
       </c>
       <c r="D85">
-        <v>-0.1186434718231543</v>
+        <v>0.02229480451539424</v>
       </c>
       <c r="E85">
-        <v>-0.1914719286732556</v>
+        <v>-0.1011389111726147</v>
       </c>
       <c r="F85">
-        <v>0.02495244438480066</v>
-      </c>
-    </row>
-    <row r="86" spans="1:6">
+        <v>0.2078479154687138</v>
+      </c>
+      <c r="G85">
+        <v>0.06093917790872213</v>
+      </c>
+      <c r="H85">
+        <v>0.03260508724371348</v>
+      </c>
+    </row>
+    <row r="86" spans="1:8">
       <c r="A86" s="1" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B86">
-        <v>-0.006063349580092475</v>
+        <v>-0.005912476986360109</v>
       </c>
       <c r="C86">
-        <v>0.0091548742393477</v>
+        <v>-0.02767180506567247</v>
       </c>
       <c r="D86">
-        <v>-0.03623705003885795</v>
+        <v>-0.009451645134724388</v>
       </c>
       <c r="E86">
-        <v>0.05530788099886998</v>
+        <v>0.01203378436625249</v>
       </c>
       <c r="F86">
-        <v>0.03455182320083335</v>
-      </c>
-    </row>
-    <row r="87" spans="1:6">
+        <v>-0.02672676457739264</v>
+      </c>
+      <c r="G86">
+        <v>-0.04794639527656505</v>
+      </c>
+      <c r="H86">
+        <v>-0.01961486403152687</v>
+      </c>
+    </row>
+    <row r="87" spans="1:8">
       <c r="A87" s="1" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B87">
-        <v>-0.02695193184376256</v>
+        <v>-0.01479975560561362</v>
       </c>
       <c r="C87">
-        <v>0.005273545008255521</v>
+        <v>-0.02765119202247955</v>
       </c>
       <c r="D87">
-        <v>-0.02818107211204291</v>
+        <v>-0.01071384148322912</v>
       </c>
       <c r="E87">
-        <v>0.1000868600012006</v>
+        <v>0.07236326868101231</v>
       </c>
       <c r="F87">
-        <v>0.05741599789761146</v>
-      </c>
-    </row>
-    <row r="88" spans="1:6">
+        <v>-0.06595304902374531</v>
+      </c>
+      <c r="G87">
+        <v>-0.03857480517330737</v>
+      </c>
+      <c r="H87">
+        <v>-0.006052647647658794</v>
+      </c>
+    </row>
+    <row r="88" spans="1:8">
       <c r="A88" s="1" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B88">
-        <v>-0.04571929809781444</v>
+        <v>-0.08038711927133886</v>
       </c>
       <c r="C88">
-        <v>-0.009876788757380194</v>
+        <v>-0.04953086902688574</v>
       </c>
       <c r="D88">
-        <v>0.002797751611479845</v>
+        <v>-0.01901490668991497</v>
       </c>
       <c r="E88">
-        <v>-0.0003665240853282499</v>
+        <v>-0.01937562195381023</v>
       </c>
       <c r="F88">
-        <v>0.02160537354304399</v>
-      </c>
-    </row>
-    <row r="89" spans="1:6">
+        <v>-0.01368514630721233</v>
+      </c>
+      <c r="G88">
+        <v>-0.02070991582034099</v>
+      </c>
+      <c r="H88">
+        <v>0.02970721477597416</v>
+      </c>
+    </row>
+    <row r="89" spans="1:8">
       <c r="A89" s="1" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B89">
-        <v>-0.1414816669711395</v>
+        <v>-0.2450196389729538</v>
       </c>
       <c r="C89">
-        <v>-0.07990249660111019</v>
+        <v>0.3669971745127758</v>
       </c>
       <c r="D89">
-        <v>0.3793678111629213</v>
+        <v>0.01659977666044758</v>
       </c>
       <c r="E89">
-        <v>0.00932079391491545</v>
+        <v>-0.003765331875390865</v>
       </c>
       <c r="F89">
-        <v>0.04274894775955739</v>
-      </c>
-    </row>
-    <row r="90" spans="1:6">
+        <v>0.02516529400615726</v>
+      </c>
+      <c r="G89">
+        <v>-0.02253947643998994</v>
+      </c>
+      <c r="H89">
+        <v>0.008102030838811629</v>
+      </c>
+    </row>
+    <row r="90" spans="1:8">
       <c r="A90" s="1" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B90">
-        <v>-0.07975532199741385</v>
+        <v>-0.2022032697301616</v>
       </c>
       <c r="C90">
-        <v>-0.07176626447247976</v>
+        <v>0.3283569749060666</v>
       </c>
       <c r="D90">
-        <v>0.3406972060942252</v>
+        <v>0.01694195336601651</v>
       </c>
       <c r="E90">
-        <v>-0.02658020093704958</v>
+        <v>0.006017169795187885</v>
       </c>
       <c r="F90">
-        <v>-0.03264883097064364</v>
-      </c>
-    </row>
-    <row r="91" spans="1:6">
+        <v>0.04503152147240264</v>
+      </c>
+      <c r="G90">
+        <v>-0.001747026451559662</v>
+      </c>
+      <c r="H90">
+        <v>-0.004899276696961628</v>
+      </c>
+    </row>
+    <row r="91" spans="1:8">
       <c r="A91" s="1" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B91">
-        <v>-0.2865631738032978</v>
+        <v>-0.2066874374767211</v>
       </c>
       <c r="C91">
-        <v>-0.02490894505896716</v>
+        <v>-0.140925173783142</v>
       </c>
       <c r="D91">
-        <v>-0.1365767493355169</v>
+        <v>0.02776430195935884</v>
       </c>
       <c r="E91">
-        <v>-0.2384781384754834</v>
+        <v>-0.08220903850588922</v>
       </c>
       <c r="F91">
-        <v>-0.05810879915226649</v>
-      </c>
-    </row>
-    <row r="92" spans="1:6">
+        <v>0.1975175774030618</v>
+      </c>
+      <c r="G91">
+        <v>0.02185877055955421</v>
+      </c>
+      <c r="H91">
+        <v>0.009636980068004774</v>
+      </c>
+    </row>
+    <row r="92" spans="1:8">
       <c r="A92" s="1" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B92">
-        <v>-0.225032360838985</v>
+        <v>-0.2312496031328215</v>
       </c>
       <c r="C92">
-        <v>-0.08360937365409572</v>
+        <v>0.2489066420176873</v>
       </c>
       <c r="D92">
-        <v>0.3666352677782331</v>
+        <v>0.05846473335243834</v>
       </c>
       <c r="E92">
-        <v>-0.1175655551389635</v>
+        <v>0.007673944387227245</v>
       </c>
       <c r="F92">
-        <v>-0.03809334262401091</v>
-      </c>
-    </row>
-    <row r="93" spans="1:6">
+        <v>0.1415494286977836</v>
+      </c>
+      <c r="G92">
+        <v>-0.04699896612355695</v>
+      </c>
+      <c r="H92">
+        <v>0.01247579645765323</v>
+      </c>
+    </row>
+    <row r="93" spans="1:8">
       <c r="A93" s="1" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B93">
-        <v>-0.1320106272154767</v>
+        <v>-0.232030652120056</v>
       </c>
       <c r="C93">
-        <v>-0.09902095508050399</v>
+        <v>0.3190927419524586</v>
       </c>
       <c r="D93">
-        <v>0.397475456982172</v>
+        <v>0.02384421850706168</v>
       </c>
       <c r="E93">
-        <v>0.00323485885834451</v>
+        <v>0.01906056081170694</v>
       </c>
       <c r="F93">
-        <v>-0.05820216468106426</v>
-      </c>
-    </row>
-    <row r="94" spans="1:6">
+        <v>0.01712684910086297</v>
+      </c>
+      <c r="G93">
+        <v>0.007092110466679027</v>
+      </c>
+      <c r="H93">
+        <v>-0.03981710226358279</v>
+      </c>
+    </row>
+    <row r="94" spans="1:8">
       <c r="A94" s="1" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B94">
-        <v>-0.3234127886134653</v>
+        <v>-0.2692342595380691</v>
       </c>
       <c r="C94">
-        <v>-0.05866996994798743</v>
+        <v>-0.1680829053829578</v>
       </c>
       <c r="D94">
-        <v>-0.09752848288788488</v>
+        <v>0.01622016904566454</v>
       </c>
       <c r="E94">
-        <v>-0.2277530119990514</v>
+        <v>-0.1007198755639642</v>
       </c>
       <c r="F94">
-        <v>0.0509950816419383</v>
-      </c>
-    </row>
-    <row r="95" spans="1:6">
+        <v>0.3519413164563675</v>
+      </c>
+      <c r="G94">
+        <v>0.1054795229057681</v>
+      </c>
+      <c r="H94">
+        <v>0.2420603521126179</v>
+      </c>
+    </row>
+    <row r="95" spans="1:8">
       <c r="A95" s="1" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B95">
-        <v>-0.06859686266723085</v>
+        <v>-0.06956272969413624</v>
       </c>
       <c r="C95">
-        <v>-0.07627245363409958</v>
+        <v>-0.09712622529576614</v>
       </c>
       <c r="D95">
-        <v>-0.03585987545510701</v>
+        <v>0.00740539466398852</v>
       </c>
       <c r="E95">
-        <v>0.00112913566458348</v>
+        <v>0.07053098511191086</v>
       </c>
       <c r="F95">
-        <v>0.1321750079240364</v>
-      </c>
-    </row>
-    <row r="96" spans="1:6">
+        <v>-0.1527643118896516</v>
+      </c>
+      <c r="G95">
+        <v>0.05629307745454658</v>
+      </c>
+      <c r="H95">
+        <v>0.006062811466966606</v>
+      </c>
+    </row>
+    <row r="96" spans="1:8">
       <c r="A96" s="1" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B96">
         <v>0</v>
@@ -2617,10 +3193,16 @@
       <c r="F96">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:6">
+      <c r="G96">
+        <v>0</v>
+      </c>
+      <c r="H96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:8">
       <c r="A97" s="1" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B97">
         <v>0</v>
@@ -2637,30 +3219,42 @@
       <c r="F97">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="1:6">
+      <c r="G97">
+        <v>0</v>
+      </c>
+      <c r="H97">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:8">
       <c r="A98" s="1" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B98">
-        <v>-0.2044361049175479</v>
+        <v>-0.2110740974666312</v>
       </c>
       <c r="C98">
-        <v>-0.073114290468525</v>
+        <v>-0.05313153903158573</v>
       </c>
       <c r="D98">
-        <v>0.02687783290219091</v>
+        <v>0.02211031828098208</v>
       </c>
       <c r="E98">
-        <v>0.2299102230235999</v>
+        <v>0.06332481091152861</v>
       </c>
       <c r="F98">
-        <v>0.2081946625880639</v>
-      </c>
-    </row>
-    <row r="99" spans="1:6">
+        <v>-0.2587337561724008</v>
+      </c>
+      <c r="G98">
+        <v>0.03618630319560053</v>
+      </c>
+      <c r="H98">
+        <v>-0.05828324163328038</v>
+      </c>
+    </row>
+    <row r="99" spans="1:8">
       <c r="A99" s="1" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B99">
         <v>0</v>
@@ -2677,10 +3271,16 @@
       <c r="F99">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="1:6">
+      <c r="G99">
+        <v>0</v>
+      </c>
+      <c r="H99">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:8">
       <c r="A100" s="1" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B100">
         <v>0</v>
@@ -2697,85 +3297,115 @@
       <c r="F100">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:6">
+      <c r="G100">
+        <v>0</v>
+      </c>
+      <c r="H100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:8">
       <c r="A101" s="1" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B101">
-        <v>0.004036205936927052</v>
+        <v>-0.00558292818562797</v>
       </c>
       <c r="C101">
-        <v>0.003143210561785311</v>
+        <v>-0.02095826819964426</v>
       </c>
       <c r="D101">
-        <v>-0.03156878822967691</v>
+        <v>-0.007719942532357403</v>
       </c>
       <c r="E101">
-        <v>0.1321540520936242</v>
+        <v>0.02776008252810447</v>
       </c>
       <c r="F101">
-        <v>0.05797725383017392</v>
-      </c>
-    </row>
-    <row r="102" spans="1:6">
+        <v>0.006610367370990925</v>
+      </c>
+      <c r="G101">
+        <v>-0.03443751835551052</v>
+      </c>
+      <c r="H101">
+        <v>0.0465245188718461</v>
+      </c>
+    </row>
+    <row r="102" spans="1:8">
       <c r="A102" s="1" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B102">
-        <v>-0.1417159591388731</v>
+        <v>-0.117841047022143</v>
       </c>
       <c r="C102">
-        <v>-0.01025970384839043</v>
+        <v>-0.0842508063094419</v>
       </c>
       <c r="D102">
-        <v>-0.05123490874596681</v>
+        <v>0.001358410265860063</v>
       </c>
       <c r="E102">
-        <v>-0.1048412212223829</v>
+        <v>-0.04531080048612587</v>
       </c>
       <c r="F102">
-        <v>-0.0322058179554642</v>
-      </c>
-    </row>
-    <row r="103" spans="1:6">
+        <v>0.06180925671058523</v>
+      </c>
+      <c r="G102">
+        <v>0.01871536497113217</v>
+      </c>
+      <c r="H102">
+        <v>-0.006097016634573372</v>
+      </c>
+    </row>
+    <row r="103" spans="1:8">
       <c r="A103" s="1" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="B103">
-        <v>-0.03666957179426854</v>
+        <v>-0.006639158340334971</v>
       </c>
       <c r="C103">
-        <v>0.01384415635968403</v>
+        <v>-0.007100246862278572</v>
       </c>
       <c r="D103">
-        <v>-0.01916245452869464</v>
+        <v>-0.0004058097309717776</v>
       </c>
       <c r="E103">
-        <v>-0.01080457214008329</v>
+        <v>-0.0009131930510942156</v>
       </c>
       <c r="F103">
-        <v>-0.005638168971643513</v>
-      </c>
-    </row>
-    <row r="104" spans="1:6">
+        <v>0.01164154368594308</v>
+      </c>
+      <c r="G103">
+        <v>-0.01354727684521199</v>
+      </c>
+      <c r="H103">
+        <v>-0.01093536580447316</v>
+      </c>
+    </row>
+    <row r="104" spans="1:8">
       <c r="A104" s="1" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="B104">
-        <v>0</v>
+        <v>-0.05634018098672997</v>
       </c>
       <c r="C104">
-        <v>0</v>
+        <v>0.0504450310709838</v>
       </c>
       <c r="D104">
-        <v>0</v>
+        <v>-0.9845231104298783</v>
       </c>
       <c r="E104">
-        <v>0</v>
+        <v>-0.04515161503478996</v>
       </c>
       <c r="F104">
-        <v>0</v>
+        <v>0.02906451007726936</v>
+      </c>
+      <c r="G104">
+        <v>-0.009692927460795305</v>
+      </c>
+      <c r="H104">
+        <v>0.1029142935889093</v>
       </c>
     </row>
   </sheetData>
